--- a/public/asset/chinaSuntv/chinasuntv.xlsx
+++ b/public/asset/chinaSuntv/chinasuntv.xlsx
@@ -50,7 +50,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 0:00</t>
+    <t>12/25/17 0:00</t>
   </si>
   <si>
     <t>歷史人文</t>
@@ -76,7 +76,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 0:20</t>
+    <t>12/25/17 0:20</t>
   </si>
   <si>
     <r>
@@ -99,7 +99,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 0:30</t>
+    <t>12/25/17 0:30</t>
   </si>
   <si>
     <t>紀錄片</t>
@@ -125,7 +125,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 1:00</t>
+    <t>12/25/17 1:00</t>
   </si>
   <si>
     <r>
@@ -148,7 +148,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 1:30</t>
+    <t>12/25/17 1:30</t>
   </si>
   <si>
     <t>旅遊</t>
@@ -195,7 +195,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 2:00</t>
+    <t>12/25/17 2:00</t>
   </si>
   <si>
     <t>訪談</t>
@@ -204,7 +204,7 @@
     <t>CC講壇-擠出心中最美的泡泡-王墨</t>
   </si>
   <si>
-    <t>12/18/17 2:30</t>
+    <t>12/25/17 2:30</t>
   </si>
   <si>
     <t>教育</t>
@@ -251,7 +251,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 3:00</t>
+    <t>12/25/17 3:00</t>
   </si>
   <si>
     <r>
@@ -274,7 +274,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 3:20</t>
+    <t>12/25/17 3:20</t>
   </si>
   <si>
     <r>
@@ -297,7 +297,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 3:30</t>
+    <t>12/25/17 3:30</t>
   </si>
   <si>
     <r>
@@ -320,7 +320,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 4:00</t>
+    <t>12/25/17 4:00</t>
   </si>
   <si>
     <r>
@@ -343,10 +343,10 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 4:30</t>
-  </si>
-  <si>
-    <t>12/18/17 4:50</t>
+    <t>12/25/17 4:30</t>
+  </si>
+  <si>
+    <t>12/25/17 4:50</t>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 5:00</t>
+    <t>12/25/17 5:00</t>
   </si>
   <si>
     <r>
@@ -413,7 +413,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 6:00</t>
+    <t>12/25/17 6:00</t>
   </si>
   <si>
     <r>
@@ -436,7 +436,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 6:20</t>
+    <t>12/25/17 6:20</t>
   </si>
   <si>
     <r>
@@ -459,7 +459,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 6:30</t>
+    <t>12/25/17 6:30</t>
   </si>
   <si>
     <r>
@@ -482,7 +482,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 7:00</t>
+    <t>12/25/17 7:00</t>
   </si>
   <si>
     <r>
@@ -505,7 +505,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 7:30</t>
+    <t>12/25/17 7:30</t>
   </si>
   <si>
     <r>
@@ -549,10 +549,10 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 8:00</t>
-  </si>
-  <si>
-    <t>12/18/17 8:30</t>
+    <t>12/25/17 8:00</t>
+  </si>
+  <si>
+    <t>12/25/17 8:30</t>
   </si>
   <si>
     <r>
@@ -596,7 +596,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 9:00</t>
+    <t>12/25/17 9:00</t>
   </si>
   <si>
     <r>
@@ -619,7 +619,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 9:20</t>
+    <t>12/25/17 9:20</t>
   </si>
   <si>
     <r>
@@ -642,7 +642,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 9:30</t>
+    <t>12/25/17 9:30</t>
   </si>
   <si>
     <r>
@@ -665,7 +665,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 10:00</t>
+    <t>12/25/17 10:00</t>
   </si>
   <si>
     <r>
@@ -688,10 +688,10 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 10:30</t>
-  </si>
-  <si>
-    <t>12/18/17 10:50</t>
+    <t>12/25/17 10:30</t>
+  </si>
+  <si>
+    <t>12/25/17 10:50</t>
   </si>
   <si>
     <r>
@@ -735,7 +735,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 11:00</t>
+    <t>12/25/17 11:00</t>
   </si>
   <si>
     <r>
@@ -758,7 +758,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 12:00</t>
+    <t>12/25/17 12:00</t>
   </si>
   <si>
     <r>
@@ -781,7 +781,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 12:20</t>
+    <t>12/25/17 12:20</t>
   </si>
   <si>
     <r>
@@ -804,7 +804,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 12:30</t>
+    <t>12/25/17 12:30</t>
   </si>
   <si>
     <r>
@@ -827,7 +827,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 13:00</t>
+    <t>12/25/17 13:00</t>
   </si>
   <si>
     <r>
@@ -850,7 +850,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 13:30</t>
+    <t>12/25/17 13:30</t>
   </si>
   <si>
     <r>
@@ -894,10 +894,10 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 14:00</t>
-  </si>
-  <si>
-    <t>12/18/17 14:30</t>
+    <t>12/25/17 14:00</t>
+  </si>
+  <si>
+    <t>12/25/17 14:30</t>
   </si>
   <si>
     <r>
@@ -941,7 +941,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 15:00</t>
+    <t>12/25/17 15:00</t>
   </si>
   <si>
     <r>
@@ -964,7 +964,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 15:20</t>
+    <t>12/25/17 15:20</t>
   </si>
   <si>
     <r>
@@ -987,7 +987,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 15:30</t>
+    <t>12/25/17 15:30</t>
   </si>
   <si>
     <r>
@@ -1010,7 +1010,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 16:00</t>
+    <t>12/25/17 16:00</t>
   </si>
   <si>
     <r>
@@ -1033,10 +1033,10 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 16:30</t>
-  </si>
-  <si>
-    <t>12/18/17 16:50</t>
+    <t>12/25/17 16:30</t>
+  </si>
+  <si>
+    <t>12/25/17 16:50</t>
   </si>
   <si>
     <r>
@@ -1080,7 +1080,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 17:00</t>
+    <t>12/25/17 17:00</t>
   </si>
   <si>
     <r>
@@ -1103,7 +1103,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 18:00</t>
+    <t>12/25/17 18:00</t>
   </si>
   <si>
     <r>
@@ -1126,7 +1126,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 18:20</t>
+    <t>12/25/17 18:20</t>
   </si>
   <si>
     <r>
@@ -1149,7 +1149,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 18:30</t>
+    <t>12/25/17 18:30</t>
   </si>
   <si>
     <r>
@@ -1172,7 +1172,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 19:00</t>
+    <t>12/25/17 19:00</t>
   </si>
   <si>
     <t>人物傳記</t>
@@ -1212,7 +1212,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 19:30</t>
+    <t>12/25/17 19:30</t>
   </si>
   <si>
     <r>
@@ -1235,13 +1235,13 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 20:00</t>
+    <t>12/25/17 20:00</t>
   </si>
   <si>
     <t>CC講壇-一場村晚，一場鄉愁-李靜</t>
   </si>
   <si>
-    <t>12/18/17 20:30</t>
+    <t>12/25/17 20:30</t>
   </si>
   <si>
     <r>
@@ -1285,7 +1285,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 21:00</t>
+    <t>12/25/17 21:00</t>
   </si>
   <si>
     <r>
@@ -1308,13 +1308,13 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 21:20</t>
+    <t>12/25/17 21:20</t>
   </si>
   <si>
     <t>子夜-現實與夢想9-盧躍剛</t>
   </si>
   <si>
-    <t>12/18/17 21:30</t>
+    <t>12/25/17 21:30</t>
   </si>
   <si>
     <r>
@@ -1337,7 +1337,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 22:00</t>
+    <t>12/25/17 22:00</t>
   </si>
   <si>
     <r>
@@ -1381,10 +1381,10 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 22:30</t>
-  </si>
-  <si>
-    <t>12/18/17 22:50</t>
+    <t>12/25/17 22:30</t>
+  </si>
+  <si>
+    <t>12/25/17 22:50</t>
   </si>
   <si>
     <r>
@@ -1428,7 +1428,7 @@
     </r>
   </si>
   <si>
-    <t>12/18/17 23:00</t>
+    <t>12/25/17 23:00</t>
   </si>
   <si>
     <r>
@@ -1451,7 +1451,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 0:00</t>
+    <t>12/26/17 0:00</t>
   </si>
   <si>
     <r>
@@ -1474,7 +1474,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 0:20</t>
+    <t>12/26/17 0:20</t>
   </si>
   <si>
     <r>
@@ -1497,7 +1497,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 0:30</t>
+    <t>12/26/17 0:30</t>
   </si>
   <si>
     <r>
@@ -1520,7 +1520,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 1:00</t>
+    <t>12/26/17 1:00</t>
   </si>
   <si>
     <r>
@@ -1557,7 +1557,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 1:30</t>
+    <t>12/26/17 1:30</t>
   </si>
   <si>
     <r>
@@ -1580,10 +1580,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 2:00</t>
-  </si>
-  <si>
-    <t>12/19/17 2:20</t>
+    <t>12/26/17 2:00</t>
+  </si>
+  <si>
+    <t>12/26/17 2:20</t>
   </si>
   <si>
     <r>
@@ -1627,7 +1627,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 2:30</t>
+    <t>12/26/17 2:30</t>
   </si>
   <si>
     <r>
@@ -1650,10 +1650,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 3:00</t>
-  </si>
-  <si>
-    <t>12/19/17 3:30</t>
+    <t>12/26/17 3:00</t>
+  </si>
+  <si>
+    <t>12/26/17 3:30</t>
   </si>
   <si>
     <r>
@@ -1676,7 +1676,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 4:00</t>
+    <t>12/26/17 4:00</t>
   </si>
   <si>
     <r>
@@ -1720,10 +1720,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 4:30</t>
-  </si>
-  <si>
-    <t>12/19/17 4:50</t>
+    <t>12/26/17 4:30</t>
+  </si>
+  <si>
+    <t>12/26/17 4:50</t>
   </si>
   <si>
     <r>
@@ -1767,7 +1767,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 5:00</t>
+    <t>12/26/17 5:00</t>
   </si>
   <si>
     <r>
@@ -1790,7 +1790,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 6:00</t>
+    <t>12/26/17 6:00</t>
   </si>
   <si>
     <r>
@@ -1813,7 +1813,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 6:20</t>
+    <t>12/26/17 6:20</t>
   </si>
   <si>
     <r>
@@ -1836,7 +1836,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 6:30</t>
+    <t>12/26/17 6:30</t>
   </si>
   <si>
     <r>
@@ -1859,7 +1859,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 7:00</t>
+    <t>12/26/17 7:00</t>
   </si>
   <si>
     <r>
@@ -1896,7 +1896,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 7:30</t>
+    <t>12/26/17 7:30</t>
   </si>
   <si>
     <r>
@@ -1919,10 +1919,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 8:00</t>
-  </si>
-  <si>
-    <t>12/19/17 8:20</t>
+    <t>12/26/17 8:00</t>
+  </si>
+  <si>
+    <t>12/26/17 8:20</t>
   </si>
   <si>
     <r>
@@ -1966,7 +1966,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 8:30</t>
+    <t>12/26/17 8:30</t>
   </si>
   <si>
     <r>
@@ -1989,10 +1989,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 9:00</t>
-  </si>
-  <si>
-    <t>12/19/17 9:30</t>
+    <t>12/26/17 9:00</t>
+  </si>
+  <si>
+    <t>12/26/17 9:30</t>
   </si>
   <si>
     <r>
@@ -2015,7 +2015,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 10:00</t>
+    <t>12/26/17 10:00</t>
   </si>
   <si>
     <r>
@@ -2059,10 +2059,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 10:30</t>
-  </si>
-  <si>
-    <t>12/19/17 10:50</t>
+    <t>12/26/17 10:30</t>
+  </si>
+  <si>
+    <t>12/26/17 10:50</t>
   </si>
   <si>
     <r>
@@ -2106,7 +2106,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 11:00</t>
+    <t>12/26/17 11:00</t>
   </si>
   <si>
     <r>
@@ -2129,7 +2129,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 12:00</t>
+    <t>12/26/17 12:00</t>
   </si>
   <si>
     <r>
@@ -2152,7 +2152,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 12:20</t>
+    <t>12/26/17 12:20</t>
   </si>
   <si>
     <r>
@@ -2175,7 +2175,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 12:30</t>
+    <t>12/26/17 12:30</t>
   </si>
   <si>
     <r>
@@ -2198,7 +2198,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 13:00</t>
+    <t>12/26/17 13:00</t>
   </si>
   <si>
     <r>
@@ -2235,7 +2235,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 13:30</t>
+    <t>12/26/17 13:30</t>
   </si>
   <si>
     <r>
@@ -2258,10 +2258,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 14:00</t>
-  </si>
-  <si>
-    <t>12/19/17 14:20</t>
+    <t>12/26/17 14:00</t>
+  </si>
+  <si>
+    <t>12/26/17 14:20</t>
   </si>
   <si>
     <r>
@@ -2305,7 +2305,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 14:30</t>
+    <t>12/26/17 14:30</t>
   </si>
   <si>
     <r>
@@ -2328,10 +2328,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 15:00</t>
-  </si>
-  <si>
-    <t>12/19/17 15:30</t>
+    <t>12/26/17 15:00</t>
+  </si>
+  <si>
+    <t>12/26/17 15:30</t>
   </si>
   <si>
     <r>
@@ -2354,7 +2354,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 16:00</t>
+    <t>12/26/17 16:00</t>
   </si>
   <si>
     <r>
@@ -2398,10 +2398,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 16:30</t>
-  </si>
-  <si>
-    <t>12/19/17 16:50</t>
+    <t>12/26/17 16:30</t>
+  </si>
+  <si>
+    <t>12/26/17 16:50</t>
   </si>
   <si>
     <r>
@@ -2445,7 +2445,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 17:00</t>
+    <t>12/26/17 17:00</t>
   </si>
   <si>
     <r>
@@ -2468,7 +2468,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 18:00</t>
+    <t>12/26/17 18:00</t>
   </si>
   <si>
     <r>
@@ -2491,7 +2491,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 18:20</t>
+    <t>12/26/17 18:20</t>
   </si>
   <si>
     <r>
@@ -2514,7 +2514,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 18:30</t>
+    <t>12/26/17 18:30</t>
   </si>
   <si>
     <r>
@@ -2537,7 +2537,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 19:00</t>
+    <t>12/26/17 19:00</t>
   </si>
   <si>
     <r>
@@ -2560,7 +2560,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 19:30</t>
+    <t>12/26/17 19:30</t>
   </si>
   <si>
     <r>
@@ -2583,13 +2583,13 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 20:00</t>
+    <t>12/26/17 20:00</t>
   </si>
   <si>
     <t>CC講壇-一億分之一的力量-雷闖</t>
   </si>
   <si>
-    <t>12/19/17 20:20</t>
+    <t>12/26/17 20:20</t>
   </si>
   <si>
     <r>
@@ -2633,7 +2633,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 20:30</t>
+    <t>12/26/17 20:30</t>
   </si>
   <si>
     <r>
@@ -2656,13 +2656,13 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 21:00</t>
+    <t>12/26/17 21:00</t>
   </si>
   <si>
     <t>子夜-現實與夢想10-盧躍剛</t>
   </si>
   <si>
-    <t>12/19/17 21:30</t>
+    <t>12/26/17 21:30</t>
   </si>
   <si>
     <r>
@@ -2685,7 +2685,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 22:00</t>
+    <t>12/26/17 22:00</t>
   </si>
   <si>
     <r>
@@ -2729,10 +2729,10 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 22:30</t>
-  </si>
-  <si>
-    <t>12/19/17 22:50</t>
+    <t>12/26/17 22:30</t>
+  </si>
+  <si>
+    <t>12/26/17 22:50</t>
   </si>
   <si>
     <r>
@@ -2776,7 +2776,7 @@
     </r>
   </si>
   <si>
-    <t>12/19/17 23:00</t>
+    <t>12/26/17 23:00</t>
   </si>
   <si>
     <r>
@@ -2799,7 +2799,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 0:00</t>
+    <t>12/27/17 0:00</t>
   </si>
   <si>
     <r>
@@ -2822,7 +2822,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 0:20</t>
+    <t>12/27/17 0:20</t>
   </si>
   <si>
     <r>
@@ -2845,7 +2845,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 0:30</t>
+    <t>12/27/17 0:30</t>
   </si>
   <si>
     <r>
@@ -2868,7 +2868,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 1:00</t>
+    <t>12/27/17 1:00</t>
   </si>
   <si>
     <r>
@@ -2891,7 +2891,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 1:30</t>
+    <t>12/27/17 1:30</t>
   </si>
   <si>
     <r>
@@ -2914,10 +2914,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 2:00</t>
-  </si>
-  <si>
-    <t>12/20/17 2:20</t>
+    <t>12/27/17 2:00</t>
+  </si>
+  <si>
+    <t>12/27/17 2:20</t>
   </si>
   <si>
     <r>
@@ -2961,7 +2961,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 2:30</t>
+    <t>12/27/17 2:30</t>
   </si>
   <si>
     <r>
@@ -2984,10 +2984,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 3:00</t>
-  </si>
-  <si>
-    <t>12/20/17 3:30</t>
+    <t>12/27/17 3:00</t>
+  </si>
+  <si>
+    <t>12/27/17 3:30</t>
   </si>
   <si>
     <r>
@@ -3010,7 +3010,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 4:00</t>
+    <t>12/27/17 4:00</t>
   </si>
   <si>
     <r>
@@ -3054,10 +3054,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 4:30</t>
-  </si>
-  <si>
-    <t>12/20/17 4:50</t>
+    <t>12/27/17 4:30</t>
+  </si>
+  <si>
+    <t>12/27/17 4:50</t>
   </si>
   <si>
     <r>
@@ -3101,7 +3101,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 5:00</t>
+    <t>12/27/17 5:00</t>
   </si>
   <si>
     <r>
@@ -3124,7 +3124,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 6:00</t>
+    <t>12/27/17 6:00</t>
   </si>
   <si>
     <r>
@@ -3147,7 +3147,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 6:20</t>
+    <t>12/27/17 6:20</t>
   </si>
   <si>
     <r>
@@ -3170,7 +3170,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 6:30</t>
+    <t>12/27/17 6:30</t>
   </si>
   <si>
     <r>
@@ -3193,7 +3193,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 7:00</t>
+    <t>12/27/17 7:00</t>
   </si>
   <si>
     <r>
@@ -3216,7 +3216,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 7:30</t>
+    <t>12/27/17 7:30</t>
   </si>
   <si>
     <r>
@@ -3239,10 +3239,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 8:00</t>
-  </si>
-  <si>
-    <t>12/20/17 8:20</t>
+    <t>12/27/17 8:00</t>
+  </si>
+  <si>
+    <t>12/27/17 8:20</t>
   </si>
   <si>
     <r>
@@ -3286,7 +3286,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 8:30</t>
+    <t>12/27/17 8:30</t>
   </si>
   <si>
     <r>
@@ -3309,10 +3309,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 9:00</t>
-  </si>
-  <si>
-    <t>12/20/17 9:30</t>
+    <t>12/27/17 9:00</t>
+  </si>
+  <si>
+    <t>12/27/17 9:30</t>
   </si>
   <si>
     <r>
@@ -3335,7 +3335,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 10:00</t>
+    <t>12/27/17 10:00</t>
   </si>
   <si>
     <r>
@@ -3379,10 +3379,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 10:30</t>
-  </si>
-  <si>
-    <t>12/20/17 10:50</t>
+    <t>12/27/17 10:30</t>
+  </si>
+  <si>
+    <t>12/27/17 10:50</t>
   </si>
   <si>
     <r>
@@ -3426,7 +3426,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 11:00</t>
+    <t>12/27/17 11:00</t>
   </si>
   <si>
     <r>
@@ -3449,7 +3449,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 12:00</t>
+    <t>12/27/17 12:00</t>
   </si>
   <si>
     <r>
@@ -3472,7 +3472,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 12:20</t>
+    <t>12/27/17 12:20</t>
   </si>
   <si>
     <r>
@@ -3495,7 +3495,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 12:30</t>
+    <t>12/27/17 12:30</t>
   </si>
   <si>
     <r>
@@ -3518,7 +3518,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 13:00</t>
+    <t>12/27/17 13:00</t>
   </si>
   <si>
     <r>
@@ -3541,7 +3541,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 13:30</t>
+    <t>12/27/17 13:30</t>
   </si>
   <si>
     <r>
@@ -3564,10 +3564,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 14:00</t>
-  </si>
-  <si>
-    <t>12/20/17 14:20</t>
+    <t>12/27/17 14:00</t>
+  </si>
+  <si>
+    <t>12/27/17 14:20</t>
   </si>
   <si>
     <r>
@@ -3611,7 +3611,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 14:30</t>
+    <t>12/27/17 14:30</t>
   </si>
   <si>
     <r>
@@ -3634,10 +3634,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 15:00</t>
-  </si>
-  <si>
-    <t>12/20/17 15:30</t>
+    <t>12/27/17 15:00</t>
+  </si>
+  <si>
+    <t>12/27/17 15:30</t>
   </si>
   <si>
     <r>
@@ -3660,7 +3660,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 16:00</t>
+    <t>12/27/17 16:00</t>
   </si>
   <si>
     <r>
@@ -3704,10 +3704,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 16:30</t>
-  </si>
-  <si>
-    <t>12/20/17 16:50</t>
+    <t>12/27/17 16:30</t>
+  </si>
+  <si>
+    <t>12/27/17 16:50</t>
   </si>
   <si>
     <r>
@@ -3751,7 +3751,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 17:00</t>
+    <t>12/27/17 17:00</t>
   </si>
   <si>
     <r>
@@ -3788,7 +3788,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 18:00</t>
+    <t>12/27/17 18:00</t>
   </si>
   <si>
     <r>
@@ -3811,7 +3811,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 18:20</t>
+    <t>12/27/17 18:20</t>
   </si>
   <si>
     <r>
@@ -3834,7 +3834,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 18:30</t>
+    <t>12/27/17 18:30</t>
   </si>
   <si>
     <r>
@@ -3857,7 +3857,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 19:00</t>
+    <t>12/27/17 19:00</t>
   </si>
   <si>
     <r>
@@ -3894,7 +3894,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 19:30</t>
+    <t>12/27/17 19:30</t>
   </si>
   <si>
     <r>
@@ -3917,13 +3917,13 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 20:00</t>
+    <t>12/27/17 20:00</t>
   </si>
   <si>
     <t>CC講壇-擊鼓女孩的涅槃-趙迪</t>
   </si>
   <si>
-    <t>12/20/17 20:20</t>
+    <t>12/27/17 20:20</t>
   </si>
   <si>
     <r>
@@ -3946,7 +3946,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 20:30</t>
+    <t>12/27/17 20:30</t>
   </si>
   <si>
     <r>
@@ -3969,13 +3969,13 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 21:00</t>
+    <t>12/27/17 21:00</t>
   </si>
   <si>
     <t>子夜-文人與革命1-傅國涌</t>
   </si>
   <si>
-    <t>12/20/17 21:30</t>
+    <t>12/27/17 21:30</t>
   </si>
   <si>
     <r>
@@ -3998,7 +3998,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 22:00</t>
+    <t>12/27/17 22:00</t>
   </si>
   <si>
     <r>
@@ -4042,10 +4042,10 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 22:30</t>
-  </si>
-  <si>
-    <t>12/20/17 22:50</t>
+    <t>12/27/17 22:30</t>
+  </si>
+  <si>
+    <t>12/27/17 22:50</t>
   </si>
   <si>
     <r>
@@ -4068,7 +4068,7 @@
     </r>
   </si>
   <si>
-    <t>12/20/17 23:00</t>
+    <t>12/27/17 23:00</t>
   </si>
   <si>
     <r>
@@ -4105,7 +4105,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 0:00</t>
+    <t>12/28/17 0:00</t>
   </si>
   <si>
     <r>
@@ -4128,7 +4128,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 0:20</t>
+    <t>12/28/17 0:20</t>
   </si>
   <si>
     <r>
@@ -4151,7 +4151,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 0:30</t>
+    <t>12/28/17 0:30</t>
   </si>
   <si>
     <r>
@@ -4174,7 +4174,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 1:00</t>
+    <t>12/28/17 1:00</t>
   </si>
   <si>
     <r>
@@ -4211,7 +4211,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 1:30</t>
+    <t>12/28/17 1:30</t>
   </si>
   <si>
     <r>
@@ -4234,10 +4234,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 2:00</t>
-  </si>
-  <si>
-    <t>12/21/17 2:20</t>
+    <t>12/28/17 2:00</t>
+  </si>
+  <si>
+    <t>12/28/17 2:20</t>
   </si>
   <si>
     <r>
@@ -4260,7 +4260,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 2:30</t>
+    <t>12/28/17 2:30</t>
   </si>
   <si>
     <r>
@@ -4283,10 +4283,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 3:00</t>
-  </si>
-  <si>
-    <t>12/21/17 3:30</t>
+    <t>12/28/17 3:00</t>
+  </si>
+  <si>
+    <t>12/28/17 3:30</t>
   </si>
   <si>
     <r>
@@ -4309,7 +4309,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 4:00</t>
+    <t>12/28/17 4:00</t>
   </si>
   <si>
     <r>
@@ -4353,10 +4353,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 4:30</t>
-  </si>
-  <si>
-    <t>12/21/17 4:50</t>
+    <t>12/28/17 4:30</t>
+  </si>
+  <si>
+    <t>12/28/17 4:50</t>
   </si>
   <si>
     <r>
@@ -4379,7 +4379,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 5:00</t>
+    <t>12/28/17 5:00</t>
   </si>
   <si>
     <r>
@@ -4416,7 +4416,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 6:00</t>
+    <t>12/28/17 6:00</t>
   </si>
   <si>
     <r>
@@ -4439,7 +4439,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 6:20</t>
+    <t>12/28/17 6:20</t>
   </si>
   <si>
     <r>
@@ -4462,7 +4462,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 6:30</t>
+    <t>12/28/17 6:30</t>
   </si>
   <si>
     <r>
@@ -4485,7 +4485,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 7:00</t>
+    <t>12/28/17 7:00</t>
   </si>
   <si>
     <r>
@@ -4522,7 +4522,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 7:30</t>
+    <t>12/28/17 7:30</t>
   </si>
   <si>
     <r>
@@ -4545,10 +4545,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 8:00</t>
-  </si>
-  <si>
-    <t>12/21/17 8:20</t>
+    <t>12/28/17 8:00</t>
+  </si>
+  <si>
+    <t>12/28/17 8:20</t>
   </si>
   <si>
     <r>
@@ -4571,7 +4571,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 8:30</t>
+    <t>12/28/17 8:30</t>
   </si>
   <si>
     <r>
@@ -4594,10 +4594,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 9:00</t>
-  </si>
-  <si>
-    <t>12/21/17 9:30</t>
+    <t>12/28/17 9:00</t>
+  </si>
+  <si>
+    <t>12/28/17 9:30</t>
   </si>
   <si>
     <r>
@@ -4620,7 +4620,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 10:00</t>
+    <t>12/28/17 10:00</t>
   </si>
   <si>
     <r>
@@ -4664,10 +4664,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 10:30</t>
-  </si>
-  <si>
-    <t>12/21/17 10:50</t>
+    <t>12/28/17 10:30</t>
+  </si>
+  <si>
+    <t>12/28/17 10:50</t>
   </si>
   <si>
     <r>
@@ -4690,7 +4690,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 11:00</t>
+    <t>12/28/17 11:00</t>
   </si>
   <si>
     <r>
@@ -4727,7 +4727,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 12:00</t>
+    <t>12/28/17 12:00</t>
   </si>
   <si>
     <r>
@@ -4750,7 +4750,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 12:20</t>
+    <t>12/28/17 12:20</t>
   </si>
   <si>
     <r>
@@ -4773,7 +4773,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 12:30</t>
+    <t>12/28/17 12:30</t>
   </si>
   <si>
     <r>
@@ -4796,7 +4796,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 13:00</t>
+    <t>12/28/17 13:00</t>
   </si>
   <si>
     <r>
@@ -4833,7 +4833,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 13:30</t>
+    <t>12/28/17 13:30</t>
   </si>
   <si>
     <r>
@@ -4856,10 +4856,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 14:00</t>
-  </si>
-  <si>
-    <t>12/21/17 14:20</t>
+    <t>12/28/17 14:00</t>
+  </si>
+  <si>
+    <t>12/28/17 14:20</t>
   </si>
   <si>
     <r>
@@ -4882,7 +4882,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 14:30</t>
+    <t>12/28/17 14:30</t>
   </si>
   <si>
     <r>
@@ -4905,10 +4905,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 15:00</t>
-  </si>
-  <si>
-    <t>12/21/17 15:30</t>
+    <t>12/28/17 15:00</t>
+  </si>
+  <si>
+    <t>12/28/17 15:30</t>
   </si>
   <si>
     <r>
@@ -4931,7 +4931,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 16:00</t>
+    <t>12/28/17 16:00</t>
   </si>
   <si>
     <r>
@@ -4975,10 +4975,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 16:30</t>
-  </si>
-  <si>
-    <t>12/21/17 16:50</t>
+    <t>12/28/17 16:30</t>
+  </si>
+  <si>
+    <t>12/28/17 16:50</t>
   </si>
   <si>
     <r>
@@ -5001,7 +5001,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 17:00</t>
+    <t>12/28/17 17:00</t>
   </si>
   <si>
     <r>
@@ -5024,7 +5024,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 18:00</t>
+    <t>12/28/17 18:00</t>
   </si>
   <si>
     <r>
@@ -5047,7 +5047,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 18:20</t>
+    <t>12/28/17 18:20</t>
   </si>
   <si>
     <r>
@@ -5070,7 +5070,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 18:30</t>
+    <t>12/28/17 18:30</t>
   </si>
   <si>
     <r>
@@ -5093,7 +5093,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 19:00</t>
+    <t>12/28/17 19:00</t>
   </si>
   <si>
     <r>
@@ -5130,7 +5130,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 19:30</t>
+    <t>12/28/17 19:30</t>
   </si>
   <si>
     <r>
@@ -5153,13 +5153,13 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 20:00</t>
+    <t>12/28/17 20:00</t>
   </si>
   <si>
     <t>CC講壇-成為一名綠領-董劍</t>
   </si>
   <si>
-    <t>12/21/17 20:20</t>
+    <t>12/28/17 20:20</t>
   </si>
   <si>
     <r>
@@ -5182,7 +5182,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 20:30</t>
+    <t>12/28/17 20:30</t>
   </si>
   <si>
     <r>
@@ -5205,13 +5205,13 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 21:00</t>
+    <t>12/28/17 21:00</t>
   </si>
   <si>
     <t>子夜-文人與革命2-傅國涌</t>
   </si>
   <si>
-    <t>12/21/17 21:30</t>
+    <t>12/28/17 21:30</t>
   </si>
   <si>
     <r>
@@ -5234,7 +5234,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 22:00</t>
+    <t>12/28/17 22:00</t>
   </si>
   <si>
     <r>
@@ -5278,10 +5278,10 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 22:30</t>
-  </si>
-  <si>
-    <t>12/21/17 22:50</t>
+    <t>12/28/17 22:30</t>
+  </si>
+  <si>
+    <t>12/28/17 22:50</t>
   </si>
   <si>
     <r>
@@ -5304,7 +5304,7 @@
     </r>
   </si>
   <si>
-    <t>12/21/17 23:00</t>
+    <t>12/28/17 23:00</t>
   </si>
   <si>
     <r>
@@ -5327,7 +5327,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 0:00</t>
+    <t>12/29/17 0:00</t>
   </si>
   <si>
     <r>
@@ -5350,7 +5350,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 0:20</t>
+    <t>12/29/17 0:20</t>
   </si>
   <si>
     <r>
@@ -5373,7 +5373,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 0:30</t>
+    <t>12/29/17 0:30</t>
   </si>
   <si>
     <r>
@@ -5396,7 +5396,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 1:00</t>
+    <t>12/29/17 1:00</t>
   </si>
   <si>
     <r>
@@ -5433,7 +5433,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 1:30</t>
+    <t>12/29/17 1:30</t>
   </si>
   <si>
     <r>
@@ -5456,10 +5456,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 2:00</t>
-  </si>
-  <si>
-    <t>12/22/17 2:20</t>
+    <t>12/29/17 2:00</t>
+  </si>
+  <si>
+    <t>12/29/17 2:20</t>
   </si>
   <si>
     <r>
@@ -5482,7 +5482,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 2:30</t>
+    <t>12/29/17 2:30</t>
   </si>
   <si>
     <r>
@@ -5505,10 +5505,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 3:00</t>
-  </si>
-  <si>
-    <t>12/22/17 3:30</t>
+    <t>12/29/17 3:00</t>
+  </si>
+  <si>
+    <t>12/29/17 3:30</t>
   </si>
   <si>
     <r>
@@ -5531,7 +5531,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 4:00</t>
+    <t>12/29/17 4:00</t>
   </si>
   <si>
     <r>
@@ -5575,10 +5575,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 4:30</t>
-  </si>
-  <si>
-    <t>12/22/17 4:50</t>
+    <t>12/29/17 4:30</t>
+  </si>
+  <si>
+    <t>12/29/17 4:50</t>
   </si>
   <si>
     <r>
@@ -5601,7 +5601,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 5:00</t>
+    <t>12/29/17 5:00</t>
   </si>
   <si>
     <r>
@@ -5624,7 +5624,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 6:00</t>
+    <t>12/29/17 6:00</t>
   </si>
   <si>
     <r>
@@ -5647,7 +5647,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 6:20</t>
+    <t>12/29/17 6:20</t>
   </si>
   <si>
     <r>
@@ -5670,7 +5670,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 6:30</t>
+    <t>12/29/17 6:30</t>
   </si>
   <si>
     <r>
@@ -5693,7 +5693,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 7:00</t>
+    <t>12/29/17 7:00</t>
   </si>
   <si>
     <r>
@@ -5730,7 +5730,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 7:30</t>
+    <t>12/29/17 7:30</t>
   </si>
   <si>
     <r>
@@ -5753,10 +5753,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 8:00</t>
-  </si>
-  <si>
-    <t>12/22/17 8:20</t>
+    <t>12/29/17 8:00</t>
+  </si>
+  <si>
+    <t>12/29/17 8:20</t>
   </si>
   <si>
     <r>
@@ -5779,7 +5779,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 8:30</t>
+    <t>12/29/17 8:30</t>
   </si>
   <si>
     <r>
@@ -5802,10 +5802,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 9:00</t>
-  </si>
-  <si>
-    <t>12/22/17 9:30</t>
+    <t>12/29/17 9:00</t>
+  </si>
+  <si>
+    <t>12/29/17 9:30</t>
   </si>
   <si>
     <r>
@@ -5828,7 +5828,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 10:00</t>
+    <t>12/29/17 10:00</t>
   </si>
   <si>
     <r>
@@ -5872,10 +5872,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 10:30</t>
-  </si>
-  <si>
-    <t>12/22/17 10:50</t>
+    <t>12/29/17 10:30</t>
+  </si>
+  <si>
+    <t>12/29/17 10:50</t>
   </si>
   <si>
     <r>
@@ -5898,7 +5898,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 11:00</t>
+    <t>12/29/17 11:00</t>
   </si>
   <si>
     <r>
@@ -5921,7 +5921,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 12:00</t>
+    <t>12/29/17 12:00</t>
   </si>
   <si>
     <r>
@@ -5944,7 +5944,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 12:20</t>
+    <t>12/29/17 12:20</t>
   </si>
   <si>
     <r>
@@ -5967,7 +5967,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 12:30</t>
+    <t>12/29/17 12:30</t>
   </si>
   <si>
     <r>
@@ -5990,7 +5990,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 13:00</t>
+    <t>12/29/17 13:00</t>
   </si>
   <si>
     <r>
@@ -6027,7 +6027,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 13:30</t>
+    <t>12/29/17 13:30</t>
   </si>
   <si>
     <r>
@@ -6050,10 +6050,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 14:00</t>
-  </si>
-  <si>
-    <t>12/22/17 14:20</t>
+    <t>12/29/17 14:00</t>
+  </si>
+  <si>
+    <t>12/29/17 14:20</t>
   </si>
   <si>
     <r>
@@ -6076,7 +6076,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 14:30</t>
+    <t>12/29/17 14:30</t>
   </si>
   <si>
     <r>
@@ -6099,10 +6099,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 15:00</t>
-  </si>
-  <si>
-    <t>12/22/17 15:30</t>
+    <t>12/29/17 15:00</t>
+  </si>
+  <si>
+    <t>12/29/17 15:30</t>
   </si>
   <si>
     <r>
@@ -6125,7 +6125,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 16:00</t>
+    <t>12/29/17 16:00</t>
   </si>
   <si>
     <r>
@@ -6169,10 +6169,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 16:30</t>
-  </si>
-  <si>
-    <t>12/22/17 16:50</t>
+    <t>12/29/17 16:30</t>
+  </si>
+  <si>
+    <t>12/29/17 16:50</t>
   </si>
   <si>
     <r>
@@ -6195,7 +6195,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 17:00</t>
+    <t>12/29/17 17:00</t>
   </si>
   <si>
     <r>
@@ -6218,7 +6218,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 18:00</t>
+    <t>12/29/17 18:00</t>
   </si>
   <si>
     <r>
@@ -6241,7 +6241,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 18:20</t>
+    <t>12/29/17 18:20</t>
   </si>
   <si>
     <r>
@@ -6264,7 +6264,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 18:30</t>
+    <t>12/29/17 18:30</t>
   </si>
   <si>
     <r>
@@ -6287,7 +6287,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 19:00</t>
+    <t>12/29/17 19:00</t>
   </si>
   <si>
     <r>
@@ -6303,7 +6303,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 19:30</t>
+    <t>12/29/17 19:30</t>
   </si>
   <si>
     <r>
@@ -6326,13 +6326,13 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 20:00</t>
+    <t>12/29/17 20:00</t>
   </si>
   <si>
     <t>CC講壇-因為江豚的“微笑”-蔣憶</t>
   </si>
   <si>
-    <t>12/22/17 20:20</t>
+    <t>12/29/17 20:20</t>
   </si>
   <si>
     <r>
@@ -6355,7 +6355,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 20:30</t>
+    <t>12/29/17 20:30</t>
   </si>
   <si>
     <r>
@@ -6378,13 +6378,13 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 21:00</t>
+    <t>12/29/17 21:00</t>
   </si>
   <si>
     <t>子夜-文人與革命3-傅國涌</t>
   </si>
   <si>
-    <t>12/22/17 21:30</t>
+    <t>12/29/17 21:30</t>
   </si>
   <si>
     <r>
@@ -6407,7 +6407,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 22:00</t>
+    <t>12/29/17 22:00</t>
   </si>
   <si>
     <r>
@@ -6451,10 +6451,10 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 22:30</t>
-  </si>
-  <si>
-    <t>12/22/17 22:50</t>
+    <t>12/29/17 22:30</t>
+  </si>
+  <si>
+    <t>12/29/17 22:50</t>
   </si>
   <si>
     <r>
@@ -6484,7 +6484,7 @@
     </r>
   </si>
   <si>
-    <t>12/22/17 23:00</t>
+    <t>12/29/17 23:00</t>
   </si>
   <si>
     <r>
@@ -6507,7 +6507,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 0:00</t>
+    <t>12/30/17 0:00</t>
   </si>
   <si>
     <r>
@@ -6530,7 +6530,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 0:20</t>
+    <t>12/30/17 0:20</t>
   </si>
   <si>
     <r>
@@ -6553,7 +6553,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 0:30</t>
+    <t>12/30/17 0:30</t>
   </si>
   <si>
     <r>
@@ -6576,7 +6576,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 1:00</t>
+    <t>12/30/17 1:00</t>
   </si>
   <si>
     <r>
@@ -6592,7 +6592,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 1:30</t>
+    <t>12/30/17 1:30</t>
   </si>
   <si>
     <r>
@@ -6615,10 +6615,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 2:00</t>
-  </si>
-  <si>
-    <t>12/23/17 2:20</t>
+    <t>12/30/17 2:00</t>
+  </si>
+  <si>
+    <t>12/30/17 2:20</t>
   </si>
   <si>
     <r>
@@ -6641,7 +6641,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 2:30</t>
+    <t>12/30/17 2:30</t>
   </si>
   <si>
     <r>
@@ -6664,10 +6664,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 3:00</t>
-  </si>
-  <si>
-    <t>12/23/17 3:30</t>
+    <t>12/30/17 3:00</t>
+  </si>
+  <si>
+    <t>12/30/17 3:30</t>
   </si>
   <si>
     <r>
@@ -6690,7 +6690,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 4:00</t>
+    <t>12/30/17 4:00</t>
   </si>
   <si>
     <r>
@@ -6734,10 +6734,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 4:30</t>
-  </si>
-  <si>
-    <t>12/23/17 4:50</t>
+    <t>12/30/17 4:30</t>
+  </si>
+  <si>
+    <t>12/30/17 4:50</t>
   </si>
   <si>
     <r>
@@ -6767,7 +6767,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 5:00</t>
+    <t>12/30/17 5:00</t>
   </si>
   <si>
     <r>
@@ -6790,7 +6790,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 6:00</t>
+    <t>12/30/17 6:00</t>
   </si>
   <si>
     <r>
@@ -6813,7 +6813,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 6:20</t>
+    <t>12/30/17 6:20</t>
   </si>
   <si>
     <r>
@@ -6836,7 +6836,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 6:30</t>
+    <t>12/30/17 6:30</t>
   </si>
   <si>
     <r>
@@ -6859,7 +6859,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 7:00</t>
+    <t>12/30/17 7:00</t>
   </si>
   <si>
     <r>
@@ -6875,7 +6875,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 7:30</t>
+    <t>12/30/17 7:30</t>
   </si>
   <si>
     <r>
@@ -6898,10 +6898,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 8:00</t>
-  </si>
-  <si>
-    <t>12/23/17 8:20</t>
+    <t>12/30/17 8:00</t>
+  </si>
+  <si>
+    <t>12/30/17 8:20</t>
   </si>
   <si>
     <r>
@@ -6924,7 +6924,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 8:30</t>
+    <t>12/30/17 8:30</t>
   </si>
   <si>
     <r>
@@ -6947,10 +6947,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 9:00</t>
-  </si>
-  <si>
-    <t>12/23/17 9:30</t>
+    <t>12/30/17 9:00</t>
+  </si>
+  <si>
+    <t>12/30/17 9:30</t>
   </si>
   <si>
     <r>
@@ -6973,7 +6973,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 10:00</t>
+    <t>12/30/17 10:00</t>
   </si>
   <si>
     <r>
@@ -7017,10 +7017,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 10:30</t>
-  </si>
-  <si>
-    <t>12/23/17 10:50</t>
+    <t>12/30/17 10:30</t>
+  </si>
+  <si>
+    <t>12/30/17 10:50</t>
   </si>
   <si>
     <r>
@@ -7050,7 +7050,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 11:00</t>
+    <t>12/30/17 11:00</t>
   </si>
   <si>
     <r>
@@ -7073,7 +7073,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 12:00</t>
+    <t>12/30/17 12:00</t>
   </si>
   <si>
     <r>
@@ -7096,7 +7096,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 12:20</t>
+    <t>12/30/17 12:20</t>
   </si>
   <si>
     <r>
@@ -7119,7 +7119,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 12:30</t>
+    <t>12/30/17 12:30</t>
   </si>
   <si>
     <r>
@@ -7142,7 +7142,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 13:00</t>
+    <t>12/30/17 13:00</t>
   </si>
   <si>
     <r>
@@ -7158,7 +7158,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 13:30</t>
+    <t>12/30/17 13:30</t>
   </si>
   <si>
     <r>
@@ -7181,10 +7181,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 14:00</t>
-  </si>
-  <si>
-    <t>12/23/17 14:20</t>
+    <t>12/30/17 14:00</t>
+  </si>
+  <si>
+    <t>12/30/17 14:20</t>
   </si>
   <si>
     <r>
@@ -7207,7 +7207,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 14:30</t>
+    <t>12/30/17 14:30</t>
   </si>
   <si>
     <r>
@@ -7230,10 +7230,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 15:00</t>
-  </si>
-  <si>
-    <t>12/23/17 15:30</t>
+    <t>12/30/17 15:00</t>
+  </si>
+  <si>
+    <t>12/30/17 15:30</t>
   </si>
   <si>
     <r>
@@ -7256,7 +7256,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 16:00</t>
+    <t>12/30/17 16:00</t>
   </si>
   <si>
     <r>
@@ -7300,10 +7300,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 16:30</t>
-  </si>
-  <si>
-    <t>12/23/17 16:50</t>
+    <t>12/30/17 16:30</t>
+  </si>
+  <si>
+    <t>12/30/17 16:50</t>
   </si>
   <si>
     <r>
@@ -7333,7 +7333,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 17:00</t>
+    <t>12/30/17 17:00</t>
   </si>
   <si>
     <r>
@@ -7356,7 +7356,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 18:00</t>
+    <t>12/30/17 18:00</t>
   </si>
   <si>
     <r>
@@ -7379,7 +7379,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 18:20</t>
+    <t>12/30/17 18:20</t>
   </si>
   <si>
     <r>
@@ -7402,7 +7402,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 18:30</t>
+    <t>12/30/17 18:30</t>
   </si>
   <si>
     <r>
@@ -7446,13 +7446,13 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 19:00</t>
+    <t>12/30/17 19:00</t>
   </si>
   <si>
     <t>走遍貴州</t>
   </si>
   <si>
-    <t>12/23/17 19:30</t>
+    <t>12/30/17 19:30</t>
   </si>
   <si>
     <r>
@@ -7475,13 +7475,13 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 20:00</t>
+    <t>12/30/17 20:00</t>
   </si>
   <si>
     <t>CC講壇-藝術發現鄉村-張超</t>
   </si>
   <si>
-    <t>12/23/17 20:15</t>
+    <t>12/30/17 20:15</t>
   </si>
   <si>
     <r>
@@ -7504,7 +7504,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 20:30</t>
+    <t>12/30/17 20:30</t>
   </si>
   <si>
     <r>
@@ -7527,7 +7527,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 21:00</t>
+    <t>12/30/17 21:00</t>
   </si>
   <si>
     <r>
@@ -7550,7 +7550,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 21:20</t>
+    <t>12/30/17 21:20</t>
   </si>
   <si>
     <r>
@@ -7573,7 +7573,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 22:00</t>
+    <t>12/30/17 22:00</t>
   </si>
   <si>
     <r>
@@ -7596,10 +7596,10 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 22:30</t>
-  </si>
-  <si>
-    <t>12/23/17 22:50</t>
+    <t>12/30/17 22:30</t>
+  </si>
+  <si>
+    <t>12/30/17 22:50</t>
   </si>
   <si>
     <r>
@@ -7622,7 +7622,7 @@
     </r>
   </si>
   <si>
-    <t>12/23/17 23:00</t>
+    <t>12/30/17 23:00</t>
   </si>
   <si>
     <r>
@@ -7645,7 +7645,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 0:00</t>
+    <t>12/31/17 0:00</t>
   </si>
   <si>
     <r>
@@ -7668,7 +7668,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 0:20</t>
+    <t>12/31/17 0:20</t>
   </si>
   <si>
     <r>
@@ -7691,7 +7691,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 0:30</t>
+    <t>12/31/17 0:30</t>
   </si>
   <si>
     <r>
@@ -7735,10 +7735,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 1:00</t>
-  </si>
-  <si>
-    <t>12/24/17 1:30</t>
+    <t>12/31/17 1:00</t>
+  </si>
+  <si>
+    <t>12/31/17 1:30</t>
   </si>
   <si>
     <r>
@@ -7761,10 +7761,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 2:00</t>
-  </si>
-  <si>
-    <t>12/24/17 2:30</t>
+    <t>12/31/17 2:00</t>
+  </si>
+  <si>
+    <t>12/31/17 2:30</t>
   </si>
   <si>
     <r>
@@ -7787,7 +7787,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 3:00</t>
+    <t>12/31/17 3:00</t>
   </si>
   <si>
     <r>
@@ -7810,7 +7810,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 3:20</t>
+    <t>12/31/17 3:20</t>
   </si>
   <si>
     <r>
@@ -7833,7 +7833,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 3:30</t>
+    <t>12/31/17 3:30</t>
   </si>
   <si>
     <r>
@@ -7856,7 +7856,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 4:00</t>
+    <t>12/31/17 4:00</t>
   </si>
   <si>
     <r>
@@ -7879,10 +7879,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 4:30</t>
-  </si>
-  <si>
-    <t>12/24/17 4:50</t>
+    <t>12/31/17 4:30</t>
+  </si>
+  <si>
+    <t>12/31/17 4:50</t>
   </si>
   <si>
     <r>
@@ -7905,7 +7905,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 5:00</t>
+    <t>12/31/17 5:00</t>
   </si>
   <si>
     <r>
@@ -7928,7 +7928,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 6:00</t>
+    <t>12/31/17 6:00</t>
   </si>
   <si>
     <r>
@@ -7951,7 +7951,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 6:20</t>
+    <t>12/31/17 6:20</t>
   </si>
   <si>
     <r>
@@ -7974,7 +7974,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 6:30</t>
+    <t>12/31/17 6:30</t>
   </si>
   <si>
     <r>
@@ -8018,10 +8018,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 7:00</t>
-  </si>
-  <si>
-    <t>12/24/17 7:30</t>
+    <t>12/31/17 7:00</t>
+  </si>
+  <si>
+    <t>12/31/17 7:30</t>
   </si>
   <si>
     <r>
@@ -8044,10 +8044,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 8:00</t>
-  </si>
-  <si>
-    <t>12/24/17 8:30</t>
+    <t>12/31/17 8:00</t>
+  </si>
+  <si>
+    <t>12/31/17 8:30</t>
   </si>
   <si>
     <r>
@@ -8070,7 +8070,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 9:00</t>
+    <t>12/31/17 9:00</t>
   </si>
   <si>
     <r>
@@ -8093,7 +8093,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 9:20</t>
+    <t>12/31/17 9:20</t>
   </si>
   <si>
     <r>
@@ -8116,7 +8116,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 9:30</t>
+    <t>12/31/17 9:30</t>
   </si>
   <si>
     <r>
@@ -8139,7 +8139,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 10:00</t>
+    <t>12/31/17 10:00</t>
   </si>
   <si>
     <r>
@@ -8162,10 +8162,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 10:30</t>
-  </si>
-  <si>
-    <t>12/24/17 10:50</t>
+    <t>12/31/17 10:30</t>
+  </si>
+  <si>
+    <t>12/31/17 10:50</t>
   </si>
   <si>
     <r>
@@ -8188,7 +8188,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 11:00</t>
+    <t>12/31/17 11:00</t>
   </si>
   <si>
     <r>
@@ -8211,7 +8211,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 12:00</t>
+    <t>12/31/17 12:00</t>
   </si>
   <si>
     <r>
@@ -8234,7 +8234,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 12:20</t>
+    <t>12/31/17 12:20</t>
   </si>
   <si>
     <r>
@@ -8257,7 +8257,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 12:30</t>
+    <t>12/31/17 12:30</t>
   </si>
   <si>
     <r>
@@ -8301,10 +8301,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 13:00</t>
-  </si>
-  <si>
-    <t>12/24/17 13:30</t>
+    <t>12/31/17 13:00</t>
+  </si>
+  <si>
+    <t>12/31/17 13:30</t>
   </si>
   <si>
     <r>
@@ -8327,10 +8327,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 14:00</t>
-  </si>
-  <si>
-    <t>12/24/17 14:30</t>
+    <t>12/31/17 14:00</t>
+  </si>
+  <si>
+    <t>12/31/17 14:30</t>
   </si>
   <si>
     <r>
@@ -8353,7 +8353,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 15:00</t>
+    <t>12/31/17 15:00</t>
   </si>
   <si>
     <r>
@@ -8376,7 +8376,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 15:20</t>
+    <t>12/31/17 15:20</t>
   </si>
   <si>
     <r>
@@ -8399,7 +8399,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 15:30</t>
+    <t>12/31/17 15:30</t>
   </si>
   <si>
     <r>
@@ -8422,7 +8422,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 16:00</t>
+    <t>12/31/17 16:00</t>
   </si>
   <si>
     <r>
@@ -8445,10 +8445,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 16:30</t>
-  </si>
-  <si>
-    <t>12/24/17 16:50</t>
+    <t>12/31/17 16:30</t>
+  </si>
+  <si>
+    <t>12/31/17 16:50</t>
   </si>
   <si>
     <r>
@@ -8471,7 +8471,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 17:00</t>
+    <t>12/31/17 17:00</t>
   </si>
   <si>
     <r>
@@ -8494,7 +8494,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 18:00</t>
+    <t>12/31/17 18:00</t>
   </si>
   <si>
     <r>
@@ -8517,7 +8517,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 18:20</t>
+    <t>12/31/17 18:20</t>
   </si>
   <si>
     <r>
@@ -8540,7 +8540,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 18:30</t>
+    <t>12/31/17 18:30</t>
   </si>
   <si>
     <r>
@@ -8584,7 +8584,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 19:00</t>
+    <t>12/31/17 19:00</t>
   </si>
   <si>
     <r>
@@ -8607,7 +8607,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 19:30</t>
+    <t>12/31/17 19:30</t>
   </si>
   <si>
     <r>
@@ -8630,13 +8630,13 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 20:00</t>
+    <t>12/31/17 20:00</t>
   </si>
   <si>
     <t>CC講壇-繪一座彩色的城-于西蔓</t>
   </si>
   <si>
-    <t>12/24/17 20:30</t>
+    <t>12/31/17 20:30</t>
   </si>
   <si>
     <r>
@@ -8659,7 +8659,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 21:00</t>
+    <t>12/31/17 21:00</t>
   </si>
   <si>
     <r>
@@ -8682,7 +8682,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 21:20</t>
+    <t>12/31/17 21:20</t>
   </si>
   <si>
     <r>
@@ -8705,7 +8705,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 21:30</t>
+    <t>12/31/17 21:30</t>
   </si>
   <si>
     <r>
@@ -8728,7 +8728,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 22:00</t>
+    <t>12/31/17 22:00</t>
   </si>
   <si>
     <r>
@@ -8751,10 +8751,10 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 22:30</t>
-  </si>
-  <si>
-    <t>12/24/17 22:50</t>
+    <t>12/31/17 22:30</t>
+  </si>
+  <si>
+    <t>12/31/17 22:50</t>
   </si>
   <si>
     <r>
@@ -8777,7 +8777,7 @@
     </r>
   </si>
   <si>
-    <t>12/24/17 23:00</t>
+    <t>12/31/17 23:00</t>
   </si>
 </sst>
 </file>
